--- a/data_excel/911.xlsx
+++ b/data_excel/911.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="42">
   <si>
     <t>小藍</t>
   </si>
@@ -142,6 +142,10 @@
   </si>
   <si>
     <t>left</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>單位</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -515,7 +519,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -587,8 +591,8 @@
       <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
-        <v>14</v>
+      <c r="C4" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="E4" t="s">
         <v>18</v>
